--- a/biology/Zoologie/Grand_Balkan/Grand_Balkan.xlsx
+++ b/biology/Zoologie/Grand_Balkan/Grand_Balkan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Grand Balkan (en bulgare : Стара планина, serbe en écriture cyrillique : Стара планина et serbe en écriture latine : Stara planina, soit « vieille montagne »), est une chaîne de montagnes  des Balkans située en Bulgarie et Serbie, orientée est-ouest et traversant tout le centre du pays, de la mer Noire jusqu'à la frontière occidentale. Elle a été connue sous les noms de Αίμος (Aímos « neigeux ») en grec et Haemus  en latin. Son point culminant est le pic Botev (2 376 m). Le nom actuel est d'origine turque (balkan signifie « chaîne de rochers glissante »).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Protection en Serbie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Serbie, une partie du Grand Balkan, sous le nom de « Stara planina », est inscrite sur la liste des parcs naturels du pays (identifiant no PP 16)[1] et est considérée comme une zone importante pour la conservation des oiseaux (ZICO no RS030)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Serbie, une partie du Grand Balkan, sous le nom de « Stara planina », est inscrite sur la liste des parcs naturels du pays (identifiant no PP 16) et est considérée comme une zone importante pour la conservation des oiseaux (ZICO no RS030).
 </t>
         </is>
       </c>
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
